--- a/test/data/test-siemens-sheet.xlsx
+++ b/test/data/test-siemens-sheet.xlsx
@@ -77,7 +77,7 @@
     <t>FLOAT</t>
   </si>
   <si>
-    <t>ABCD</t>
+    <t>DCBA</t>
   </si>
   <si>
     <t>DB1.DBD1004</t>
@@ -1521,8 +1521,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/test/data/test-siemens-sheet.xlsx
+++ b/test/data/test-siemens-sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>address</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
   <si>
     <t>frequency</t>
@@ -1519,23 +1522,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.2166666666667" customWidth="1"/>
     <col min="2" max="2" width="4.325" customWidth="1"/>
     <col min="3" max="3" width="23.05" customWidth="1"/>
     <col min="4" max="4" width="6.64166666666667" customWidth="1"/>
     <col min="5" max="5" width="6.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.8416666666667" customWidth="1"/>
+    <col min="6" max="7" width="13.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1554,204 +1557,237 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:6">
+    <row r="2" ht="19" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" ht="13" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="14" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" ht="13" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" ht="14" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" ht="14" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>100</v>
       </c>
     </row>

--- a/test/data/test-siemens-sheet.xlsx
+++ b/test/data/test-siemens-sheet.xlsx
@@ -1524,18 +1524,19 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.2166666666667" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="4.325" customWidth="1"/>
     <col min="3" max="3" width="23.05" customWidth="1"/>
     <col min="4" max="4" width="6.64166666666667" customWidth="1"/>
     <col min="5" max="5" width="6.33333333333333" customWidth="1"/>
-    <col min="6" max="7" width="13.8416666666667" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
